--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.2869800817105</v>
+        <v>384.3752429092079</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.9165791601312</v>
+        <v>525.9191647873004</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.2676986227607</v>
+        <v>475.7261778321835</v>
       </c>
       <c r="AD2" t="n">
-        <v>311286.9800817105</v>
+        <v>384375.2429092079</v>
       </c>
       <c r="AE2" t="n">
-        <v>425916.5791601312</v>
+        <v>525919.1647873004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.388399602700133e-06</v>
+        <v>2.568902768044855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>385267.6986227608</v>
+        <v>475726.1778321834</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.6124153616072</v>
+        <v>292.5050775754294</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.9023247162175</v>
+        <v>400.2183515519783</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.6576116206019</v>
+        <v>362.022073789841</v>
       </c>
       <c r="AD3" t="n">
-        <v>231612.4153616072</v>
+        <v>292505.0775754293</v>
       </c>
       <c r="AE3" t="n">
-        <v>316902.3247162175</v>
+        <v>400218.3515519783</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.746901830228988e-06</v>
+        <v>3.232225750029336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>286657.6116206018</v>
+        <v>362022.073789841</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.2771322676197</v>
+        <v>263.9742833763144</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.5516697252066</v>
+        <v>361.1812602389431</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.4400717725846</v>
+        <v>326.7106276828201</v>
       </c>
       <c r="AD4" t="n">
-        <v>215277.1322676197</v>
+        <v>263974.2833763144</v>
       </c>
       <c r="AE4" t="n">
-        <v>294551.6697252066</v>
+        <v>361181.2602389432</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.88923834845745e-06</v>
+        <v>3.495585574506279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>266440.0717725846</v>
+        <v>326710.6276828201</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.0890345931009</v>
+        <v>242.8714370478129</v>
       </c>
       <c r="AB5" t="n">
-        <v>265.5611797340466</v>
+        <v>332.3074149002569</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.2163934577635</v>
+        <v>300.5924616186613</v>
       </c>
       <c r="AD5" t="n">
-        <v>194089.0345931009</v>
+        <v>242871.4370478129</v>
       </c>
       <c r="AE5" t="n">
-        <v>265561.1797340466</v>
+        <v>332307.4149002569</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.966101935621492e-06</v>
+        <v>3.637803334755963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.727864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>240216.3934577635</v>
+        <v>300592.4616186613</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.0182450927129</v>
+        <v>236.800647547425</v>
       </c>
       <c r="AB6" t="n">
-        <v>257.2548577152893</v>
+        <v>324.0010928814996</v>
       </c>
       <c r="AC6" t="n">
-        <v>232.7028151544776</v>
+        <v>293.0788833153754</v>
       </c>
       <c r="AD6" t="n">
-        <v>188018.2450927129</v>
+        <v>236800.647547425</v>
       </c>
       <c r="AE6" t="n">
-        <v>257254.8577152893</v>
+        <v>324001.0928814996</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.003705105655283e-06</v>
+        <v>3.707379044370977e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>232702.8151544776</v>
+        <v>293078.8833153754</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.3741886228483</v>
+        <v>230.9859988769682</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.5324106550264</v>
+        <v>316.0452340463898</v>
       </c>
       <c r="AC7" t="n">
-        <v>225.7173876031212</v>
+        <v>285.8823204813679</v>
       </c>
       <c r="AD7" t="n">
-        <v>182374.1886228483</v>
+        <v>230985.9988769682</v>
       </c>
       <c r="AE7" t="n">
-        <v>249532.4106550264</v>
+        <v>316045.2340463898</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.035986411773676e-06</v>
+        <v>3.767107912401743e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.4609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>225717.3876031212</v>
+        <v>285882.3204813679</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.5292132889591</v>
+        <v>230.1410235430789</v>
       </c>
       <c r="AB8" t="n">
-        <v>248.3762781255189</v>
+        <v>314.8891015168823</v>
       </c>
       <c r="AC8" t="n">
-        <v>224.6715947395873</v>
+        <v>284.8365276178341</v>
       </c>
       <c r="AD8" t="n">
-        <v>181529.2132889591</v>
+        <v>230141.0235430789</v>
       </c>
       <c r="AE8" t="n">
-        <v>248376.2781255189</v>
+        <v>314889.1015168823</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.045252990608819e-06</v>
+        <v>3.784253509370806e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.428385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>224671.5947395873</v>
+        <v>284836.5276178341</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.7567360727925</v>
+        <v>312.5752967363819</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.2011612517268</v>
+        <v>427.6793108435719</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.064769721856</v>
+        <v>386.8621976683434</v>
       </c>
       <c r="AD2" t="n">
-        <v>253756.7360727925</v>
+        <v>312575.2967363818</v>
       </c>
       <c r="AE2" t="n">
-        <v>347201.1612517268</v>
+        <v>427679.3108435719</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.59975152456209e-06</v>
+        <v>3.049373299305336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.82421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>314064.769721856</v>
+        <v>386862.1976683434</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.7850426912642</v>
+        <v>250.7546398761119</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.8276857716347</v>
+        <v>343.0935607922938</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.2167627787865</v>
+        <v>310.3491928852164</v>
       </c>
       <c r="AD3" t="n">
-        <v>203785.0426912642</v>
+        <v>250754.6398761119</v>
       </c>
       <c r="AE3" t="n">
-        <v>278827.6857716347</v>
+        <v>343093.5607922937</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.932972726019508e-06</v>
+        <v>3.684544336110467e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.131510416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>252216.7627787865</v>
+        <v>310349.1928852164</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.6745801109279</v>
+        <v>226.7294286417962</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.8386871906967</v>
+        <v>310.221206864005</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.3761879220525</v>
+        <v>280.6141302791946</v>
       </c>
       <c r="AD4" t="n">
-        <v>179674.5801109279</v>
+        <v>226729.4286417962</v>
       </c>
       <c r="AE4" t="n">
-        <v>245838.6871906967</v>
+        <v>310221.206864005</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.052304550483461e-06</v>
+        <v>3.912009210305465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.662760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>222376.1879220525</v>
+        <v>280614.1302791946</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.8278840625806</v>
+        <v>217.7121403928567</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.7342473686695</v>
+        <v>297.8833552671309</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.4269788479477</v>
+        <v>269.4537859224388</v>
       </c>
       <c r="AD5" t="n">
-        <v>170827.8840625806</v>
+        <v>217712.1403928567</v>
       </c>
       <c r="AE5" t="n">
-        <v>233734.2473686695</v>
+        <v>297883.3552671309</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.128124447046961e-06</v>
+        <v>4.056533634621996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.389322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>211426.9788479477</v>
+        <v>269453.7859224388</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.0412160081162</v>
+        <v>215.9254723383922</v>
       </c>
       <c r="AB6" t="n">
-        <v>231.289649314321</v>
+        <v>295.4387572127824</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.2156898008905</v>
+        <v>267.2424968753816</v>
       </c>
       <c r="AD6" t="n">
-        <v>169041.2160081161</v>
+        <v>215925.4723383923</v>
       </c>
       <c r="AE6" t="n">
-        <v>231289.649314321</v>
+        <v>295438.7572127824</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.136551562938891e-06</v>
+        <v>4.072597018089024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>209215.6898008905</v>
+        <v>267242.4968753816</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.3511011729948</v>
+        <v>186.2048711377578</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.5075449459339</v>
+        <v>254.7737194697083</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.6577020599303</v>
+        <v>230.4584732607546</v>
       </c>
       <c r="AD2" t="n">
-        <v>144351.1011729949</v>
+        <v>186204.8711377578</v>
       </c>
       <c r="AE2" t="n">
-        <v>197507.5449459339</v>
+        <v>254773.7194697082</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.282474713451726e-06</v>
+        <v>4.861073809322271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>178657.7020599303</v>
+        <v>230458.4732607546</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.5831805397387</v>
+        <v>179.2663583039095</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.2473773559319</v>
+        <v>245.2801401048594</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.2813118679883</v>
+        <v>221.8709477861615</v>
       </c>
       <c r="AD3" t="n">
-        <v>137583.1805397387</v>
+        <v>179266.3583039095</v>
       </c>
       <c r="AE3" t="n">
-        <v>188247.3773559319</v>
+        <v>245280.1401048594</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.38329892227381e-06</v>
+        <v>5.075802988122016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.36328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>170281.3118679883</v>
+        <v>221870.9477861615</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.6703783202867</v>
+        <v>227.4723111590669</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.3059145829143</v>
+        <v>311.2376514977979</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.3216308052605</v>
+        <v>281.5335668637277</v>
       </c>
       <c r="AD2" t="n">
-        <v>183670.3783202867</v>
+        <v>227472.3111590669</v>
       </c>
       <c r="AE2" t="n">
-        <v>251305.9145829143</v>
+        <v>311237.6514977979</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.003703350407676e-06</v>
+        <v>4.068210545017584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>227321.6308052605</v>
+        <v>281533.5668637277</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.008816032932</v>
+        <v>194.7254080171406</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.6169241349454</v>
+        <v>266.4318939276314</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.8976948842395</v>
+        <v>241.0040079107679</v>
       </c>
       <c r="AD3" t="n">
-        <v>151008.816032932</v>
+        <v>194725.4080171406</v>
       </c>
       <c r="AE3" t="n">
-        <v>206616.9241349454</v>
+        <v>266431.8939276314</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.278067444134222e-06</v>
+        <v>4.625264511636659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186897.6948842395</v>
+        <v>241004.0079107679</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.0972692830781</v>
+        <v>192.8138612672867</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.0014615403059</v>
+        <v>263.8164313329918</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.5318483688067</v>
+        <v>238.6381613953351</v>
       </c>
       <c r="AD4" t="n">
-        <v>149097.2692830781</v>
+        <v>192813.8612672867</v>
       </c>
       <c r="AE4" t="n">
-        <v>204001.4615403059</v>
+        <v>263816.4313329919</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298611241832461e-06</v>
+        <v>4.666975523605412e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>184531.8483688067</v>
+        <v>238638.1613953351</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7685419331542</v>
+        <v>168.9544951211276</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1867999399991</v>
+        <v>231.1709939708879</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3717790335016</v>
+        <v>209.1083587569008</v>
       </c>
       <c r="AD2" t="n">
-        <v>128768.5419331543</v>
+        <v>168954.4951211277</v>
       </c>
       <c r="AE2" t="n">
-        <v>176186.7999399991</v>
+        <v>231170.9939708879</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42706880339212e-06</v>
+        <v>5.404608160267539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.506510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159371.7790335016</v>
+        <v>209108.3587569008</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.4378853032681</v>
+        <v>335.7387855952067</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.2345102507113</v>
+        <v>459.3726182012225</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.1363394478519</v>
+        <v>415.530740253616</v>
       </c>
       <c r="AD2" t="n">
-        <v>276437.8853032681</v>
+        <v>335738.7855952067</v>
       </c>
       <c r="AE2" t="n">
-        <v>378234.5102507113</v>
+        <v>459372.6182012225</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543504345036266e-06</v>
+        <v>2.918401937956047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>342136.3394478519</v>
+        <v>415530.740253616</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.1563890166903</v>
+        <v>258.5800589810397</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.9134870149259</v>
+        <v>353.8006444449434</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.3399893069322</v>
+        <v>320.0344075014405</v>
       </c>
       <c r="AD3" t="n">
-        <v>211156.3890166903</v>
+        <v>258580.0589810397</v>
       </c>
       <c r="AE3" t="n">
-        <v>288913.4870149259</v>
+        <v>353800.6444449434</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.879116394881754e-06</v>
+        <v>3.552965008555928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.287760416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>261339.9893069322</v>
+        <v>320034.4075014405</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.7426329532295</v>
+        <v>233.2515542635963</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.1412647931275</v>
+        <v>319.1450668756224</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.8863791708507</v>
+        <v>288.6863096160223</v>
       </c>
       <c r="AD4" t="n">
-        <v>185742.6329532295</v>
+        <v>233251.5542635962</v>
       </c>
       <c r="AE4" t="n">
-        <v>254141.2647931275</v>
+        <v>319145.0668756224</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.007929205171826e-06</v>
+        <v>3.796519590305601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>229886.3791708507</v>
+        <v>288686.3096160223</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.3402484505641</v>
+        <v>223.6785775603387</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.2765075126582</v>
+        <v>306.0468978203064</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.2494162694252</v>
+        <v>276.8382114319457</v>
       </c>
       <c r="AD5" t="n">
-        <v>176340.2484505641</v>
+        <v>223678.5775603387</v>
       </c>
       <c r="AE5" t="n">
-        <v>241276.5075126583</v>
+        <v>306046.8978203064</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.084767015656949e-06</v>
+        <v>3.941801730747398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>218249.4162694252</v>
+        <v>276838.2114319457</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.2600517802128</v>
+        <v>219.5983808899874</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.6938024227135</v>
+        <v>300.4641927303616</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.1995167178871</v>
+        <v>271.7883118804077</v>
       </c>
       <c r="AD6" t="n">
-        <v>172260.0517802128</v>
+        <v>219598.3808899874</v>
       </c>
       <c r="AE6" t="n">
-        <v>235693.8024227135</v>
+        <v>300464.1927303616</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.113027823561942e-06</v>
+        <v>3.995236239580087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>213199.5167178871</v>
+        <v>271788.3118804077</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>172.6727597325932</v>
+        <v>220.0110888423677</v>
       </c>
       <c r="AB7" t="n">
-        <v>236.2584876505499</v>
+        <v>301.0288779581979</v>
       </c>
       <c r="AC7" t="n">
-        <v>213.7103091801197</v>
+        <v>272.2991043426402</v>
       </c>
       <c r="AD7" t="n">
-        <v>172672.7597325932</v>
+        <v>220011.0888423677</v>
       </c>
       <c r="AE7" t="n">
-        <v>236258.4876505499</v>
+        <v>301028.877958198</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.111998852571328e-06</v>
+        <v>3.993290698614969e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.376302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>213710.3091801197</v>
+        <v>272299.1043426402</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.7115673915857</v>
+        <v>162.9099233307802</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.2676242742572</v>
+        <v>222.9005441796517</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.1129597821718</v>
+        <v>201.6272290860884</v>
       </c>
       <c r="AD2" t="n">
-        <v>123711.5673915857</v>
+        <v>162909.9233307802</v>
       </c>
       <c r="AE2" t="n">
-        <v>169267.6242742572</v>
+        <v>222900.5441796517</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.441491315414189e-06</v>
+        <v>5.597281805699378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>153112.9597821718</v>
+        <v>201627.2290860885</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.2571758204239</v>
+        <v>268.8384279956057</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.4703173688226</v>
+        <v>367.836597497973</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.3166590095156</v>
+        <v>332.7307888946726</v>
       </c>
       <c r="AD2" t="n">
-        <v>223257.1758204239</v>
+        <v>268838.4279956057</v>
       </c>
       <c r="AE2" t="n">
-        <v>305470.3173688226</v>
+        <v>367836.597497973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786090671459239e-06</v>
+        <v>3.500713032404587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.069010416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>276316.6590095156</v>
+        <v>332730.7888946726</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.7646755149831</v>
+        <v>217.3458381816104</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.0160067621681</v>
+        <v>297.3821644215911</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.5864089238918</v>
+        <v>269.0004280277714</v>
       </c>
       <c r="AD3" t="n">
-        <v>171764.6755149831</v>
+        <v>217345.8381816105</v>
       </c>
       <c r="AE3" t="n">
-        <v>235016.0067621681</v>
+        <v>297382.1644215911</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.093064510066562e-06</v>
+        <v>4.102377513716696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.740885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>212586.4089238918</v>
+        <v>269000.4280277714</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.3562082833601</v>
+        <v>205.7667787493953</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.4064385898167</v>
+        <v>281.5391844743928</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.4665960297381</v>
+        <v>254.6694798509666</v>
       </c>
       <c r="AD4" t="n">
-        <v>160356.2082833601</v>
+        <v>205766.7787493953</v>
       </c>
       <c r="AE4" t="n">
-        <v>219406.4385898167</v>
+        <v>281539.1844743928</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.209171723356162e-06</v>
+        <v>4.329946047170266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>198466.5960297381</v>
+        <v>254669.4798509666</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.5033346325004</v>
+        <v>204.9139050985356</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.239499234581</v>
+        <v>280.3722451191572</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.4110277287561</v>
+        <v>253.6139115499846</v>
       </c>
       <c r="AD5" t="n">
-        <v>159503.3346325004</v>
+        <v>204913.9050985356</v>
       </c>
       <c r="AE5" t="n">
-        <v>218239.499234581</v>
+        <v>280372.2451191572</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.215341551703242e-06</v>
+        <v>4.342038825463921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.311197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>197411.0277287561</v>
+        <v>253613.9115499846</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.3870578026103</v>
+        <v>301.6164441326362</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.0129099645525</v>
+        <v>412.6849252406718</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.2306252241893</v>
+        <v>373.2988551826318</v>
       </c>
       <c r="AD2" t="n">
-        <v>243387.0578026102</v>
+        <v>301616.4441326362</v>
       </c>
       <c r="AE2" t="n">
-        <v>333012.9099645525</v>
+        <v>412684.9252406718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.658676830877803e-06</v>
+        <v>3.189143053506591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>301230.6252241894</v>
+        <v>373298.8551826318</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.278593693638</v>
+        <v>243.3372983145169</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.5063458061874</v>
+        <v>332.9448268377095</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.3120559609097</v>
+        <v>301.169039855417</v>
       </c>
       <c r="AD3" t="n">
-        <v>185278.593693638</v>
+        <v>243337.2983145169</v>
       </c>
       <c r="AE3" t="n">
-        <v>253506.3458061874</v>
+        <v>332944.8268377095</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.984557125854809e-06</v>
+        <v>3.815714100773581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>229312.0559609097</v>
+        <v>301169.039855417</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.1188139591356</v>
+        <v>219.7023230231533</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.8687987218285</v>
+        <v>300.6064109425624</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.2623730193326</v>
+        <v>271.9169569860406</v>
       </c>
       <c r="AD4" t="n">
-        <v>173118.8139591356</v>
+        <v>219702.3230231533</v>
       </c>
       <c r="AE4" t="n">
-        <v>236868.7987218285</v>
+        <v>300606.4109425624</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.107069981158454e-06</v>
+        <v>4.051269945157148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.532552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>214262.3730193326</v>
+        <v>271916.9569860406</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.0542264063706</v>
+        <v>212.4671432697961</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.2027183645338</v>
+        <v>290.7069188104209</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.5188098049061</v>
+        <v>262.962258488963</v>
       </c>
       <c r="AD5" t="n">
-        <v>166054.2264063706</v>
+        <v>212467.1432697961</v>
       </c>
       <c r="AE5" t="n">
-        <v>227202.7183645338</v>
+        <v>290706.9188104209</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.158844216069903e-06</v>
+        <v>4.150816426150123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.350260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>205518.8098049061</v>
+        <v>262962.258488963</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.0239194403604</v>
+        <v>212.4368363037858</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.1612510365897</v>
+        <v>290.6654514824768</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.4813000605412</v>
+        <v>262.9247487445981</v>
       </c>
       <c r="AD6" t="n">
-        <v>166023.9194403604</v>
+        <v>212436.8363037859</v>
       </c>
       <c r="AE6" t="n">
-        <v>227161.2510365897</v>
+        <v>290665.4514824768</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.157893559214185e-06</v>
+        <v>4.148988595284433e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>205481.3000605412</v>
+        <v>262924.7487445981</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.9346742046943</v>
+        <v>372.40646598634</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.383853430809</v>
+        <v>509.5429561762608</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.2173944367277</v>
+        <v>460.9128915868283</v>
       </c>
       <c r="AD2" t="n">
-        <v>299934.6742046943</v>
+        <v>372406.46598634</v>
       </c>
       <c r="AE2" t="n">
-        <v>410383.853430809</v>
+        <v>509542.9561762608</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435614154355542e-06</v>
+        <v>2.674440283364186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.67057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>371217.3944367277</v>
+        <v>460912.8915868283</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.4662348546561</v>
+        <v>272.9229974667086</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.1246052793782</v>
+        <v>373.4252856468233</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.813064003696</v>
+        <v>337.7861004903698</v>
       </c>
       <c r="AD3" t="n">
-        <v>224466.2348546561</v>
+        <v>272922.9974667086</v>
       </c>
       <c r="AE3" t="n">
-        <v>307124.6052793782</v>
+        <v>373425.2856468234</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.792206056995997e-06</v>
+        <v>3.338743951762625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.548177083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>277813.064003696</v>
+        <v>337786.1004903698</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.1980379198782</v>
+        <v>257.4916334075819</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.8150552452878</v>
+        <v>352.3114125572245</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.0642850605649</v>
+        <v>318.6873058150414</v>
       </c>
       <c r="AD4" t="n">
-        <v>197198.0379198782</v>
+        <v>257491.6334075819</v>
       </c>
       <c r="AE4" t="n">
-        <v>269815.0552452878</v>
+        <v>352311.4125572245</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.928669044282526e-06</v>
+        <v>3.592964146847802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>244064.2850605649</v>
+        <v>318687.3058150414</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.3396882626632</v>
+        <v>236.7111100201408</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.6946704414869</v>
+        <v>323.8785836865525</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.100652771368</v>
+        <v>292.9680662260512</v>
       </c>
       <c r="AD5" t="n">
-        <v>188339.6882626632</v>
+        <v>236711.1100201407</v>
       </c>
       <c r="AE5" t="n">
-        <v>257694.6704414869</v>
+        <v>323878.5836865525</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.004288361720268e-06</v>
+        <v>3.733837199779486e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>233100.652771368</v>
+        <v>292968.0662260512</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.0860894914149</v>
+        <v>230.2869190483002</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.1382207133628</v>
+        <v>315.0887221835815</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.3608185962407</v>
+        <v>285.0170967682729</v>
       </c>
       <c r="AD6" t="n">
-        <v>182086.0894914149</v>
+        <v>230286.9190483002</v>
       </c>
       <c r="AE6" t="n">
-        <v>249138.2207133628</v>
+        <v>315088.7221835815</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.044874336387382e-06</v>
+        <v>3.809445792283266e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>225360.8185962407</v>
+        <v>285017.0967682729</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>178.7445886452772</v>
+        <v>226.9454182021625</v>
       </c>
       <c r="AB7" t="n">
-        <v>244.5662318390663</v>
+        <v>310.516733309285</v>
       </c>
       <c r="AC7" t="n">
-        <v>221.2251739232789</v>
+        <v>280.8814520953111</v>
       </c>
       <c r="AD7" t="n">
-        <v>178744.5886452772</v>
+        <v>226945.4182021625</v>
       </c>
       <c r="AE7" t="n">
-        <v>244566.2318390663</v>
+        <v>310516.733309285</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.061767513089404e-06</v>
+        <v>3.840916499192086e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.428385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>221225.1739232789</v>
+        <v>280881.4520953111</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>178.9608617101869</v>
+        <v>227.1616912670722</v>
       </c>
       <c r="AB8" t="n">
-        <v>244.8621461877698</v>
+        <v>310.8126476579885</v>
       </c>
       <c r="AC8" t="n">
-        <v>221.4928466218607</v>
+        <v>281.1491247938928</v>
       </c>
       <c r="AD8" t="n">
-        <v>178960.8617101869</v>
+        <v>227161.6912670722</v>
       </c>
       <c r="AE8" t="n">
-        <v>244862.1461877698</v>
+        <v>310812.6476579885</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.061155782456741e-06</v>
+        <v>3.839776891421015e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>221492.8466218607</v>
+        <v>281149.1247938928</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.360385868031</v>
+        <v>236.9276606790382</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.1959662858079</v>
+        <v>324.1748778515967</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.076912661426</v>
+        <v>293.2360824918352</v>
       </c>
       <c r="AD2" t="n">
-        <v>192360.385868031</v>
+        <v>236927.6606790382</v>
       </c>
       <c r="AE2" t="n">
-        <v>263195.9662858078</v>
+        <v>324174.8778515967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.932962068193022e-06</v>
+        <v>3.874617352939351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.57421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>238076.9126614259</v>
+        <v>293236.0824918352</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.1533955071976</v>
+        <v>202.4647372630411</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.3924529682317</v>
+        <v>277.0211856369761</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.7402609657209</v>
+        <v>250.5826724815404</v>
       </c>
       <c r="AD3" t="n">
-        <v>158153.3955071977</v>
+        <v>202464.7372630411</v>
       </c>
       <c r="AE3" t="n">
-        <v>216392.4529682317</v>
+        <v>277021.1856369761</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.211935787805815e-06</v>
+        <v>4.433819436007763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195740.2609657209</v>
+        <v>250582.6724815404</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.6044291017576</v>
+        <v>196.915770857601</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.800112329192</v>
+        <v>269.4288449979364</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.8725226613517</v>
+        <v>243.7149341771712</v>
       </c>
       <c r="AD4" t="n">
-        <v>152604.4291017576</v>
+        <v>196915.770857601</v>
       </c>
       <c r="AE4" t="n">
-        <v>208800.112329192</v>
+        <v>269428.8449979364</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268035977406782e-06</v>
+        <v>4.5462721176759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>188872.5226613517</v>
+        <v>243714.9341771711</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.0677215637084</v>
+        <v>207.1232848889246</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.8022536315393</v>
+        <v>283.3952160193232</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.6835824078265</v>
+        <v>256.3483743502061</v>
       </c>
       <c r="AD2" t="n">
-        <v>154067.7215637084</v>
+        <v>207123.2848889246</v>
       </c>
       <c r="AE2" t="n">
-        <v>210802.2536315393</v>
+        <v>283395.2160193232</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.177285349339205e-06</v>
+        <v>4.55501711370794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.9296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>190683.5824078266</v>
+        <v>256348.3743502061</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.5088555806159</v>
+        <v>183.9192594075113</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.618659135417</v>
+        <v>251.6464446663135</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.1399660530824</v>
+        <v>227.629661175437</v>
       </c>
       <c r="AD3" t="n">
-        <v>141508.8555806159</v>
+        <v>183919.2594075113</v>
       </c>
       <c r="AE3" t="n">
-        <v>193618.659135417</v>
+        <v>251646.4446663135</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.359465989587992e-06</v>
+        <v>4.93615040630615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>175139.9660530824</v>
+        <v>227629.661175437</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8283416806646</v>
+        <v>175.7192902916478</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.4780852940355</v>
+        <v>240.4268851648888</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.8717557502435</v>
+        <v>217.4808806860741</v>
       </c>
       <c r="AD2" t="n">
-        <v>134828.3416806645</v>
+        <v>175719.2902916478</v>
       </c>
       <c r="AE2" t="n">
-        <v>184478.0852940355</v>
+        <v>240426.8851648888</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384476768828554e-06</v>
+        <v>5.183508582007508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166871.7557502435</v>
+        <v>217480.8806860741</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.6013942792773</v>
+        <v>174.4923428902606</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.7993217303592</v>
+        <v>238.7481216012125</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.3532110249245</v>
+        <v>215.9623359607551</v>
       </c>
       <c r="AD3" t="n">
-        <v>133601.3942792773</v>
+        <v>174492.3428902606</v>
       </c>
       <c r="AE3" t="n">
-        <v>182799.3217303592</v>
+        <v>238748.1216012125</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.410944746213292e-06</v>
+        <v>5.24104614736176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165353.2110249245</v>
+        <v>215962.3359607551</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.433041502297</v>
+        <v>165.8242464983559</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.045312280409</v>
+        <v>226.8880497083909</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5799351084356</v>
+        <v>205.2341726836652</v>
       </c>
       <c r="AD2" t="n">
-        <v>118433.041502297</v>
+        <v>165824.2464983559</v>
       </c>
       <c r="AE2" t="n">
-        <v>162045.312280409</v>
+        <v>226888.0497083909</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.410135198656334e-06</v>
+        <v>5.732571555740113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>146579.9351084356</v>
+        <v>205234.1726836652</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.0692200612853</v>
+        <v>290.5149093664639</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.8955891760033</v>
+        <v>397.495315608447</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.4606417179107</v>
+        <v>359.5589205749553</v>
       </c>
       <c r="AD2" t="n">
-        <v>233069.2200612853</v>
+        <v>290514.9093664639</v>
       </c>
       <c r="AE2" t="n">
-        <v>318895.5891760034</v>
+        <v>397495.315608447</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721765404573659e-06</v>
+        <v>3.341220401000971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.309895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>288460.6417179107</v>
+        <v>359558.9205749554</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.8648286286397</v>
+        <v>224.9578538332534</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.7307494889164</v>
+        <v>307.7972600545933</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.3739902395294</v>
+        <v>278.4215215512418</v>
       </c>
       <c r="AD3" t="n">
-        <v>178864.8286286397</v>
+        <v>224957.8538332533</v>
       </c>
       <c r="AE3" t="n">
-        <v>244730.7494889164</v>
+        <v>307797.2600545933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03435484837759e-06</v>
+        <v>3.947824659630422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.877604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>221373.9902395294</v>
+        <v>278421.5215512417</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.1441127642516</v>
+        <v>213.0665457682732</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.6939489617786</v>
+        <v>291.5270477526087</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.8677194469057</v>
+        <v>263.7041154759669</v>
       </c>
       <c r="AD4" t="n">
-        <v>167144.1127642517</v>
+        <v>213066.5457682732</v>
       </c>
       <c r="AE4" t="n">
-        <v>228693.9489617786</v>
+        <v>291527.0477526087</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.151492800147229e-06</v>
+        <v>4.175140014640184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>206867.7194469057</v>
+        <v>263704.1154759669</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.329898396708</v>
+        <v>208.2523314007294</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.1069284759603</v>
+        <v>284.9400272667904</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.9093549513104</v>
+        <v>257.7457509803717</v>
       </c>
       <c r="AD5" t="n">
-        <v>162329.898396708</v>
+        <v>208252.3314007294</v>
       </c>
       <c r="AE5" t="n">
-        <v>222106.9284759603</v>
+        <v>284940.0272667904</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.185073331087496e-06</v>
+        <v>4.240305660758997e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>200909.3549513104</v>
+        <v>257745.7509803717</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.6141671696575</v>
+        <v>347.4630693442593</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.5263921630627</v>
+        <v>475.4143004655703</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.9687856127794</v>
+        <v>430.0414268772969</v>
       </c>
       <c r="AD2" t="n">
-        <v>287614.1671696575</v>
+        <v>347463.0693442593</v>
       </c>
       <c r="AE2" t="n">
-        <v>393526.3921630626</v>
+        <v>475414.3004655703</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489807422734736e-06</v>
+        <v>2.795463071089919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>355968.7856127794</v>
+        <v>430041.4268772969</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.1049439503443</v>
+        <v>264.9670154208243</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.0525623068695</v>
+        <v>362.5395600184883</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.7022826762792</v>
+        <v>327.9392932377913</v>
       </c>
       <c r="AD3" t="n">
-        <v>217104.9439503443</v>
+        <v>264967.0154208243</v>
       </c>
       <c r="AE3" t="n">
-        <v>297052.5623068695</v>
+        <v>362539.5600184883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.840682478982496e-06</v>
+        <v>3.453842300068867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.391927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>268702.2826762792</v>
+        <v>327939.2932377913</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.3917804679979</v>
+        <v>239.3391032844952</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.8706776456289</v>
+        <v>327.4743200097207</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.8781077090109</v>
+        <v>296.2206305211851</v>
       </c>
       <c r="AD4" t="n">
-        <v>191391.7804679979</v>
+        <v>239339.1032844952</v>
       </c>
       <c r="AE4" t="n">
-        <v>261870.6776456289</v>
+        <v>327474.3200097207</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.968862190199983e-06</v>
+        <v>3.694357714144137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.845052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236878.1077090109</v>
+        <v>296220.6305211851</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.6240496519388</v>
+        <v>230.571372468436</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.8742815381184</v>
+        <v>315.4779239022103</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.0266308089498</v>
+        <v>285.369153621124</v>
       </c>
       <c r="AD5" t="n">
-        <v>182624.0496519388</v>
+        <v>230571.372468436</v>
       </c>
       <c r="AE5" t="n">
-        <v>249874.2815381184</v>
+        <v>315477.9239022103</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.042714391018054e-06</v>
+        <v>3.832933409871755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>226026.6308089498</v>
+        <v>285369.153621124</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.5592979949045</v>
+        <v>224.3360286108094</v>
       </c>
       <c r="AB6" t="n">
-        <v>241.5762207630084</v>
+        <v>306.9464513522535</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.5205253078122</v>
+        <v>277.6519128373353</v>
       </c>
       <c r="AD6" t="n">
-        <v>176559.2979949045</v>
+        <v>224336.0286108094</v>
       </c>
       <c r="AE6" t="n">
-        <v>241576.2207630084</v>
+        <v>306946.4513522534</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.084088704614815e-06</v>
+        <v>3.910567850395034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>218520.5253078122</v>
+        <v>277651.9128373353</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.2964262890447</v>
+        <v>223.0731569049497</v>
       </c>
       <c r="AB7" t="n">
-        <v>239.8483039810844</v>
+        <v>305.2185345703294</v>
       </c>
       <c r="AC7" t="n">
-        <v>216.957518478408</v>
+        <v>276.0889060079311</v>
       </c>
       <c r="AD7" t="n">
-        <v>175296.4262890447</v>
+        <v>223073.1569049497</v>
       </c>
       <c r="AE7" t="n">
-        <v>239848.3039810844</v>
+        <v>305218.5345703294</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.091585426573861e-06</v>
+        <v>3.924634641223792e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>216957.518478408</v>
+        <v>276088.9060079311</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.9278995395308</v>
+        <v>166.6435235011255</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.4588871123192</v>
+        <v>228.0090206475301</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.6677231493718</v>
+        <v>206.2481597296659</v>
       </c>
       <c r="AD2" t="n">
-        <v>120927.8995395308</v>
+        <v>166643.5235011255</v>
       </c>
       <c r="AE2" t="n">
-        <v>165458.8871123192</v>
+        <v>228009.0206475302</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.297007606587943e-06</v>
+        <v>5.744641705244948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.639322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>149667.7231493718</v>
+        <v>206248.1597296659</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.2063889268663</v>
+        <v>217.3769254782168</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.3568667730982</v>
+        <v>297.4246994322827</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.6084219443063</v>
+        <v>269.0389035567408</v>
       </c>
       <c r="AD2" t="n">
-        <v>174206.3889268663</v>
+        <v>217376.9254782168</v>
       </c>
       <c r="AE2" t="n">
-        <v>238356.8667730982</v>
+        <v>297424.6994322827</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.088251006762571e-06</v>
+        <v>4.300300754626856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>215608.4219443063</v>
+        <v>269038.9035567408</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.2016276243166</v>
+        <v>188.2868233210954</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.6712727592105</v>
+        <v>257.6223382961973</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.7103653240104</v>
+        <v>233.0352239045061</v>
       </c>
       <c r="AD3" t="n">
-        <v>145201.6276243165</v>
+        <v>188286.8233210954</v>
       </c>
       <c r="AE3" t="n">
-        <v>198671.2727592105</v>
+        <v>257622.3382961973</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330143652533652e-06</v>
+        <v>4.798426278703923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179710.3653240104</v>
+        <v>233035.2239045061</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.7526976639155</v>
+        <v>188.8378933606945</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.4252710988838</v>
+        <v>258.3763366358706</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.3924031203888</v>
+        <v>233.7172617008845</v>
       </c>
       <c r="AD4" t="n">
-        <v>145752.6976639155</v>
+        <v>188837.8933606945</v>
       </c>
       <c r="AE4" t="n">
-        <v>199425.2710988838</v>
+        <v>258376.3366358706</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.328184055597723e-06</v>
+        <v>4.794390913149183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>180392.4031203888</v>
+        <v>233717.2617008845</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.482863839541</v>
+        <v>258.7040596288396</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.0459872186314</v>
+        <v>353.9703076017857</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.6051070350518</v>
+        <v>320.1878782447175</v>
       </c>
       <c r="AD2" t="n">
-        <v>202482.863839541</v>
+        <v>258704.0596288396</v>
       </c>
       <c r="AE2" t="n">
-        <v>277045.9872186314</v>
+        <v>353970.3076017858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.852787194822005e-06</v>
+        <v>3.67071255289603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>250605.1070350518</v>
+        <v>320187.8782447175</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.9510427582327</v>
+        <v>209.9962720733263</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.6932938281247</v>
+        <v>287.3261638322688</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.1534426277608</v>
+        <v>259.9041580210053</v>
       </c>
       <c r="AD3" t="n">
-        <v>164951.0427582327</v>
+        <v>209996.2720733263</v>
       </c>
       <c r="AE3" t="n">
-        <v>225693.2938281247</v>
+        <v>287326.1638322688</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.154503752391895e-06</v>
+        <v>4.268468603015305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>204153.4426277608</v>
+        <v>259904.1580210053</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.8475995767376</v>
+        <v>200.722236691239</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.2375612516408</v>
+        <v>274.637019480938</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.886467686642</v>
+        <v>248.4260477972356</v>
       </c>
       <c r="AD4" t="n">
-        <v>155847.5995767376</v>
+        <v>200722.236691239</v>
       </c>
       <c r="AE4" t="n">
-        <v>213237.5612516408</v>
+        <v>274637.019480938</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.246925515983005e-06</v>
+        <v>4.451573132624961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>192886.467686642</v>
+        <v>248426.0477972355</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.1368356998497</v>
+        <v>201.0114728143511</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.6333068754797</v>
+        <v>275.032765104777</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.2444439035744</v>
+        <v>248.784024014168</v>
       </c>
       <c r="AD5" t="n">
-        <v>156136.8356998497</v>
+        <v>201011.4728143511</v>
       </c>
       <c r="AE5" t="n">
-        <v>213633.3068754798</v>
+        <v>275032.7651047769</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.247252539098597e-06</v>
+        <v>4.452221025625758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>193244.4439035744</v>
+        <v>248784.024014168</v>
       </c>
     </row>
   </sheetData>
